--- a/test_data/Test data for APP.xlsx
+++ b/test_data/Test data for APP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kmartaus-my.sharepoint.com/personal/brennan_raymakers_kmart_com_au1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esari\Source\dc2shop-request-control\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6C5DB022-DCB2-42C5-ADEC-C7444A51C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544743DF-E162-45EB-AA68-68345FA13B7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A4712-FC2F-4420-A95B-C35732782259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EE69E5-6DF1-C244-BAF5-62976118D985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{90EE69E5-6DF1-C244-BAF5-62976118D985}"/>
   </bookViews>
   <sheets>
     <sheet name="SCT_SPACE (21)" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STR_ID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>PACK_SIZE</t>
-  </si>
-  <si>
-    <t>Correct Scan Count for BOH</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +399,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -572,11 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,13 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4B6E6-5A6B-5D4D-87B5-6274ED8641B4}">
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -977,11 +967,10 @@
     <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,11 +1010,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1350</v>
       </c>
@@ -1044,13 +1030,9 @@
       <c r="M2">
         <v>12</v>
       </c>
-      <c r="N2" s="3">
-        <f>CEILING((L2/M2),1)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1350</v>
       </c>
@@ -1069,12 +1051,8 @@
       <c r="M3">
         <v>18</v>
       </c>
-      <c r="N3" s="3">
-        <f>CEILING((L3/M3),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1350</v>
       </c>
@@ -1093,12 +1071,8 @@
       <c r="M4">
         <v>8</v>
       </c>
-      <c r="N4" s="3">
-        <f>CEILING((L4/M4),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1350</v>
       </c>
@@ -1117,12 +1091,8 @@
       <c r="M5">
         <v>12</v>
       </c>
-      <c r="N5" s="3">
-        <f>CEILING((L5/M5),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1350</v>
       </c>
@@ -1141,12 +1111,8 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
-        <f>CEILING((L6/M6),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1350</v>
       </c>
@@ -1165,12 +1131,8 @@
       <c r="M7">
         <v>12</v>
       </c>
-      <c r="N7" s="3">
-        <f>CEILING((L7/M7),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1350</v>
       </c>
@@ -1189,12 +1151,8 @@
       <c r="M8">
         <v>6</v>
       </c>
-      <c r="N8" s="3">
-        <f>CEILING((L8/M8),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1350</v>
       </c>
@@ -1213,12 +1171,8 @@
       <c r="M9">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
-        <f>CEILING((L9/M9),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1350</v>
       </c>
@@ -1237,27 +1191,23 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
-        <f>CEILING((L10/M10),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
